--- a/Sugar_World-MarketTrade.xlsx
+++ b/Sugar_World-MarketTrade.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4949BD49-C3F5-1F42-A216-022CB163CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -24,8 +25,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Consumption" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Consumption" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\khandek\Downloads\Datasets&amp;Other\Sugar\Consumption.txt" tab="0" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -39,7 +40,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Export" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Export" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\khandek\Downloads\Datasets&amp;Other\Sugar\Export.txt" tab="0" space="1" consecutive="1">
       <textFields count="7">
         <textField/>
@@ -52,7 +53,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Import" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Import" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\khandek\Downloads\Datasets&amp;Other\Sugar\Import.txt" tab="0" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -66,7 +67,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="Productiontxt" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="Productiontxt" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\khandek\Downloads\Datasets&amp;Other\Sugar\Productiontxt.txt" tab="0" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -269,12 +270,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +289,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +297,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,8 +305,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,8 +389,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="제목 2" xfId="1" builtinId="17"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -390,28 +398,31 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Productiontxt" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Productiontxt" connectionId="4" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Consumption" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Consumption" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Export" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Export" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Import" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Import" connectionId="3" xr16:uid="{00000000-0016-0000-0400-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,9 +497,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,6 +549,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,27 +741,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="56.77734375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="56.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" thickTop="1"/>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -724,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -732,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -740,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -748,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
@@ -756,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16">
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
@@ -765,27 +810,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -808,7 +854,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -831,7 +877,7 @@
         <v>39920</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -854,7 +900,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
@@ -877,7 +923,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -900,7 +946,7 @@
         <v>10603</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -923,7 +969,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -946,7 +992,7 @@
         <v>8446</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -969,7 +1015,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -992,7 +1038,7 @@
         <v>6158</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1015,7 +1061,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1084,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1061,7 +1107,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1084,7 +1130,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +1153,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1176,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1199,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -1176,7 +1222,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1245,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1268,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
@@ -1245,7 +1291,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1314,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1337,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1314,7 +1360,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1337,7 +1383,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -1360,7 +1406,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -1383,7 +1429,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1393,26 +1439,27 @@
       <c r="G27" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -1435,7 +1482,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1458,7 +1505,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1481,7 +1528,7 @@
         <v>16750</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1504,7 +1551,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -1527,7 +1574,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1597,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +1620,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1596,7 +1643,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1666,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1642,7 +1689,7 @@
         <v>4192</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1665,7 +1712,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1688,7 +1735,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1711,7 +1758,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -1734,7 +1781,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1804,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1827,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1803,7 +1850,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1826,7 +1873,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -1849,7 +1896,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1872,7 +1919,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -1895,7 +1942,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
@@ -1918,7 +1965,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1941,7 +1988,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +2011,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +2034,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -2010,7 +2057,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2020,26 +2067,27 @@
       <c r="G27" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2062,7 +2110,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +2133,7 @@
         <v>29170</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2108,7 +2156,7 @@
         <v>10445</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -2131,7 +2179,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2154,7 +2202,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
@@ -2177,7 +2225,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -2200,7 +2248,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2223,7 +2271,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -2246,7 +2294,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -2269,7 +2317,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2292,7 +2340,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
@@ -2315,7 +2363,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
@@ -2338,7 +2386,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
@@ -2361,7 +2409,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -2384,7 +2432,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
@@ -2407,7 +2455,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -2430,7 +2478,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
@@ -2453,7 +2501,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -2476,7 +2524,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2499,7 +2547,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -2522,7 +2570,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
@@ -2545,7 +2593,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
@@ -2568,7 +2616,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
@@ -2591,7 +2639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -2614,7 +2662,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -2638,26 +2686,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="9" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -2680,7 +2729,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2752,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
@@ -2726,7 +2775,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -2749,7 +2798,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2772,7 +2821,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -2795,7 +2844,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -2818,7 +2867,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2841,7 +2890,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -2864,7 +2913,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
@@ -2887,7 +2936,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>51</v>
       </c>
@@ -2910,7 +2959,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -2933,7 +2982,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
@@ -2956,7 +3005,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2979,7 +3028,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -3002,7 +3051,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -3025,7 +3074,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -3048,7 +3097,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
@@ -3071,7 +3120,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
@@ -3094,7 +3143,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
@@ -3117,7 +3166,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -3140,7 +3189,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -3163,7 +3212,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>56</v>
       </c>
@@ -3186,7 +3235,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -3209,7 +3258,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>59</v>
       </c>
@@ -3232,7 +3281,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>57</v>
       </c>
@@ -3256,6 +3305,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>